--- a/Excel/BUDDHADHARM.xlsx
+++ b/Excel/BUDDHADHARM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\A8\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DB1F83-54F3-4C77-BBD8-2010BDA250B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD064F78-3A40-4F0C-B401-8D0335A39E29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1692" windowWidth="7632" windowHeight="10164" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11400" yWindow="2316" windowWidth="11628" windowHeight="10164" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2805" uniqueCount="2805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="2808">
   <si>
     <t>videoId</t>
   </si>
@@ -8443,6 +8443,15 @@
   </si>
   <si>
     <t>ทำไมจึงเป็นทุกข์.</t>
+  </si>
+  <si>
+    <t>ต้นเหตุของปัญหาทุกปัญหาในโลก</t>
+  </si>
+  <si>
+    <t>" ไอ้ชาติโง่ ! " ไม่รู้จักความถูกต้อง</t>
+  </si>
+  <si>
+    <t>การอยู่ด้วยปัจจุบัน ไม่มีอดีต ไม่มีอนาคต</t>
   </si>
 </sst>
 </file>
@@ -8450,7 +8459,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="192" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="187" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -8509,7 +8518,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8851,13 +8860,13 @@
   <dimension ref="A1:E2803"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.296875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8907,6 +8916,12 @@
       <c r="C4">
         <v>446219</v>
       </c>
+      <c r="D4" t="s">
+        <v>2805</v>
+      </c>
+      <c r="E4" s="2">
+        <v>40837</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -8918,6 +8933,12 @@
       <c r="C5">
         <v>414427</v>
       </c>
+      <c r="D5" t="s">
+        <v>2806</v>
+      </c>
+      <c r="E5" s="2">
+        <v>40810</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -8928,6 +8949,12 @@
       </c>
       <c r="C6">
         <v>363802</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2807</v>
+      </c>
+      <c r="E6" s="2">
+        <v>41588</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
